--- a/data/trans_dic/KIDM_A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,73</t>
+          <t>0,0; 27,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 10,15</t>
+          <t>0; 11,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>0,0; 33,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,42</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,08</t>
+          <t>0; 10,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,4</t>
+          <t>0,0; 27,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,94</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,57</t>
+          <t>0,0; 16,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,24</t>
+          <t>0,0; 19,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,01</t>
+          <t>0,0; 22,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,68</t>
+          <t>0; 23,25</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0,77; 6,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,76</t>
+          <t>2,16; 10,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,57</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,32</t>
+          <t>0,68; 6,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,71</t>
+          <t>0,55; 5,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,24</t>
+          <t>0,75; 7,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,78</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,97</t>
+          <t>0,0; 6,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,13</t>
+          <t>0,98; 4,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,53</t>
+          <t>2,17; 7,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,32; 3,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,39</t>
+          <t>0,52; 4,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,27%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,68</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>0,0; 6,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,58</t>
+          <t>0,0; 5,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0; 2,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,0; 6,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,21</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>1,65; 9,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 4,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,12</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,04</t>
+          <t>0,5; 4,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,37</t>
+          <t>1,04; 6,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>0,74%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,51</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,17</t>
+          <t>0,77; 7,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 8,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,78</t>
+          <t>0,91; 8,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,69</t>
+          <t>0,95; 8,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,91</t>
+          <t>0,0; 3,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,31</t>
+          <t>0,0; 6,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,97</t>
+          <t>0,43; 4,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,92</t>
+          <t>1,58; 6,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,05</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,14; 5,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,68</t>
+          <t>0,0; 33,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,58</t>
+          <t>0,0; 34,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,21</t>
+          <t>0,0; 27,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,12</t>
+          <t>0,0; 16,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,04</t>
+          <t>0,0; 14,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,37</t>
+          <t>0,0; 22,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,43</t>
+          <t>0,0; 8,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,38</t>
+          <t>1,27; 12,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,89</t>
+          <t>0,0; 13,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,78</t>
+          <t>0,0; 11,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,56</t>
+          <t>0,0; 11,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,9</t>
+          <t>0,0; 12,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,95</t>
+          <t>0,77; 7,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,57</t>
+          <t>1,69; 8,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>0,0; 5,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,59</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,73</t>
+          <t>0,66; 6,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 10,15</t>
+          <t>2,15; 9,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,42</t>
+          <t>0,7; 7,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,08</t>
+          <t>0,56; 5,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,4</t>
+          <t>0,76; 6,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,94</t>
+          <t>0,0; 7,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,57</t>
+          <t>1,03; 5,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,24</t>
+          <t>2,49; 6,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,01</t>
+          <t>0,32; 3,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,68</t>
+          <t>0,51; 5,2</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,51</t>
+          <t>0,0; 5,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,17</t>
+          <t>0,0; 6,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>0,0; 5,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,78</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,69</t>
+          <t>0,0; 6,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,91</t>
+          <t>1,81; 10,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,31</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,97</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,92</t>
+          <t>0,52; 4,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,05</t>
+          <t>1,28; 6,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,76</t>
+          <t>0,76; 7,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,57</t>
+          <t>0,0; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,32</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,24</t>
+          <t>0,95; 9,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,78</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,97</t>
+          <t>0,0; 8,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,13</t>
+          <t>0,43; 3,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,53</t>
+          <t>1,61; 6,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,39</t>
+          <t>0,14; 5,49</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,47</t>
+          <t>0,91; 3,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,77</t>
+          <t>2,14; 5,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,47</t>
+          <t>0,74; 3,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,12</t>
+          <t>0,39; 3,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,9</t>
+          <t>1,02; 3,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,21</t>
+          <t>1,7; 5,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,95</t>
+          <t>0,71; 2,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,52</t>
+          <t>0,31; 3,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,25</t>
+          <t>1,26; 3,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,84</t>
+          <t>2,34; 4,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,62</t>
+          <t>0,94; 2,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,47</t>
+          <t>0,58; 2,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,33</t>
+          <t>0,0; 33,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,03</t>
+          <t>0,0; 33,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,93</t>
+          <t>0,0; 33,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,94</t>
+          <t>0,0; 16,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,45</t>
+          <t>0,0; 22,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,5</t>
+          <t>0,0; 8,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 12,17</t>
+          <t>1,26; 12,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,54</t>
+          <t>0,0; 11,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,9</t>
+          <t>0,0; 12,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,7</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,34 +899,34 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,85</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,6</t>
+          <t>0,76; 7,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,92</t>
+          <t>1,5; 9,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,66</t>
+          <t>0,0; 5,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,85</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,9</t>
+          <t>0,77; 6,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 9,55</t>
+          <t>2,16; 9,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,0</t>
+          <t>0,69; 6,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,1</t>
+          <t>0,56; 5,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,73</t>
+          <t>0,75; 6,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,28</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,5</t>
+          <t>0,0; 6,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,01</t>
+          <t>1,0; 4,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,93</t>
+          <t>2,17; 6,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,25</t>
+          <t>0,32; 2,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,2</t>
+          <t>0,54; 5,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,45</t>
+          <t>0,0; 5,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,34</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,61</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,69</t>
+          <t>0,0; 7,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,53</t>
+          <t>1,71; 10,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,49</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,89</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,9</t>
+          <t>0,51; 4,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,39</t>
+          <t>1,04; 6,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1289,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,69</t>
+          <t>0,78; 7,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,43</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 10,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,71</t>
+          <t>0,91; 8,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,09</t>
+          <t>0,96; 8,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,93</t>
+          <t>0,0; 6,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,78</t>
+          <t>0,43; 3,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,33</t>
+          <t>1,34; 5,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,49</t>
+          <t>0,15; 5,55</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,54</t>
+          <t>0,85; 3,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,72</t>
+          <t>2,14; 5,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,4</t>
+          <t>0,77; 3,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,27</t>
+          <t>0,39; 3,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,91</t>
+          <t>1,12; 3,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,34</t>
+          <t>1,72; 5,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,9</t>
+          <t>0,72; 2,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,42</t>
+          <t>0,38; 3,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,25</t>
+          <t>1,26; 3,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,88</t>
+          <t>2,35; 4,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,82</t>
+          <t>1,0; 2,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,46</t>
+          <t>0,64; 2,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,27%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,41</t>
+          <t>0,0; 7,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>1,21; 10,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,83</t>
+          <t>0; 2,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 10,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>1,02; 9,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,99</t>
+          <t>1,0; 9,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>1,08; 11,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0; 3,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,15</t>
+          <t>1,17; 7,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,67</t>
+          <t>1,73; 8,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,11</t>
+          <t>0,0; 5,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 4,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,48</t>
+          <t>0,55; 5,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,17</t>
+          <t>0,75; 7,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,21</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>0,0; 7,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,0</t>
+          <t>0,77; 6,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,42</t>
+          <t>2,16; 10,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>0,67; 6,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,13</t>
+          <t>0,98; 4,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,26</t>
+          <t>2,17; 7,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>0,32; 3,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,03</t>
+          <t>0,53; 4,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,95</t>
+          <t>0,0; 6,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 9,75</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>1,65; 9,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,73</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,03</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,87</t>
+          <t>0,0; 6,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 5,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,8</t>
+          <t>0; 2,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,63</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,91</t>
+          <t>0,5; 4,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,95</t>
+          <t>1,04; 6,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,25</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>0,74%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,92</t>
+          <t>0,91; 8,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,95; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>0,0; 3,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 7,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,55</t>
+          <t>0,77; 7,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 10,71</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,4</t>
+          <t>0,0; 7,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0,43; 4,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,59</t>
+          <t>1,58; 6,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,01</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,15; 5,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>2,0%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,61%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,47%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,37%</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0,96; 3,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,7</t>
+          <t>1,74; 5,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>0,73; 2,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,03</t>
+          <t>0,37; 3,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,73</t>
+          <t>0,82; 3,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,65</t>
+          <t>2,26; 5,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>0,79; 3,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,06</t>
+          <t>0,34; 3,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,65</t>
+          <t>1,28; 3,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,95</t>
+          <t>2,42; 4,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,96; 2,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 5,55</t>
+          <t>0,6; 2,4</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,65%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 3,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 5,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 3,57</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 3,28</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 3,76</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 5,21</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 2,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 3,39</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 3,1</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 4,64</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 2,67</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
